--- a/output/1Y_P50_1VAL-D.xlsx
+++ b/output/1Y_P50_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>23.2533</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>430.0465</v>
       </c>
-      <c r="G2" s="1">
-        <v>430.0465</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.136399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>23.2533</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.136399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>22.965</v>
       </c>
+      <c r="E3" s="1">
+        <v>430.0465</v>
+      </c>
       <c r="F3" s="1">
         <v>435.4452</v>
       </c>
-      <c r="G3" s="1">
-        <v>865.4917</v>
-      </c>
       <c r="H3" s="1">
-        <v>19772.9375</v>
+        <v>9824.7991</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>23.1083</v>
+        <v>9824.7991</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>23.2533</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19772.9375</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.008800000000000001</v>
+        <v>-0.0175</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>19.9668</v>
       </c>
+      <c r="E4" s="1">
+        <v>865.4917</v>
+      </c>
       <c r="F4" s="1">
         <v>500.8314</v>
       </c>
-      <c r="G4" s="1">
-        <v>1366.3231</v>
-      </c>
       <c r="H4" s="1">
-        <v>27139.6858</v>
+        <v>17191.5219</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21.9567</v>
+        <v>17191.5219</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>23.1083</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>27139.6858</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.08840000000000001</v>
+        <v>-0.1328</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>18.2441</v>
       </c>
+      <c r="E5" s="1">
+        <v>1366.3231</v>
+      </c>
       <c r="F5" s="1">
         <v>548.1224</v>
       </c>
-      <c r="G5" s="1">
-        <v>1914.4455</v>
-      </c>
       <c r="H5" s="1">
-        <v>34746.2289</v>
+        <v>24798.0813</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>20.8938</v>
+        <v>24798.0813</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>21.9567</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>34746.2289</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0644</v>
+        <v>-0.08799999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>14.3227</v>
       </c>
+      <c r="E6" s="1">
+        <v>1914.4455</v>
+      </c>
       <c r="F6" s="1">
         <v>698.1924</v>
       </c>
-      <c r="G6" s="1">
-        <v>2612.6379</v>
-      </c>
       <c r="H6" s="1">
-        <v>37225.9098</v>
+        <v>27277.7855</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>19.1377</v>
+        <v>27277.7855</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>20.8938</v>
+      </c>
+      <c r="M6" s="1">
         <v>2</v>
       </c>
-      <c r="L6" s="1">
-        <v>3446.0019</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-6553.9981</v>
+        <v>2459.3816</v>
       </c>
       <c r="O6" s="1">
-        <v>3446.0019</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>40671.9118</v>
+        <v>-7540.6184</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0911</v>
+        <v>-0.2161</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>15.7433</v>
       </c>
+      <c r="E7" s="1">
+        <v>2612.6379</v>
+      </c>
       <c r="F7" s="1">
-        <v>666.4604</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3279.0983</v>
+        <v>657.5077</v>
       </c>
       <c r="H7" s="1">
-        <v>51356.2538</v>
+        <v>40918.351</v>
       </c>
       <c r="I7" s="1">
-        <v>60492.286</v>
+        <v>2459.3816</v>
       </c>
       <c r="J7" s="1">
-        <v>18.4478</v>
+        <v>43377.7326</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50351.3402</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>19.2722</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10492.286</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>2953.7159</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>54309.9697</v>
+        <v>-10351.3402</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0718</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>16.1934</v>
       </c>
+      <c r="E8" s="1">
+        <v>3270.1456</v>
+      </c>
       <c r="F8" s="1">
-        <v>647.9358999999999</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3927.0342</v>
+        <v>639.232</v>
       </c>
       <c r="H8" s="1">
-        <v>63262.1655</v>
+        <v>52680.0827</v>
       </c>
       <c r="I8" s="1">
-        <v>70984.572</v>
+        <v>2108.0414</v>
       </c>
       <c r="J8" s="1">
-        <v>18.0759</v>
+        <v>54788.1241</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60702.6805</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.5627</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10492.286</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>2461.43</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>65723.59540000001</v>
+        <v>-10351.3402</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.022</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>15.2218</v>
       </c>
+      <c r="E9" s="1">
+        <v>3909.3776</v>
+      </c>
       <c r="F9" s="1">
-        <v>689.2934</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4616.3276</v>
+        <v>680.0339</v>
       </c>
       <c r="H9" s="1">
-        <v>69904.5876</v>
+        <v>59199.314</v>
       </c>
       <c r="I9" s="1">
-        <v>81476.85799999999</v>
+        <v>1756.7011</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6497</v>
+        <v>60956.0152</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71054.02069999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.1753</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10492.286</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1969.144</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>71873.7316</v>
+        <v>-10351.3402</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0508</v>
+        <v>-0.0591</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>14.0702</v>
       </c>
+      <c r="E10" s="1">
+        <v>4589.4115</v>
+      </c>
       <c r="F10" s="1">
-        <v>745.7098</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5362.0374</v>
+        <v>735.6925</v>
       </c>
       <c r="H10" s="1">
-        <v>75054.04640000001</v>
+        <v>64239.3697</v>
       </c>
       <c r="I10" s="1">
-        <v>91969.144</v>
+        <v>1405.3609</v>
       </c>
       <c r="J10" s="1">
-        <v>17.1519</v>
+        <v>65644.7307</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81405.3609</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.7376</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10492.286</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1476.858</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>76530.9044</v>
+        <v>-10351.3402</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0653</v>
+        <v>-0.07489999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>13.8476</v>
       </c>
+      <c r="E11" s="1">
+        <v>5325.104</v>
+      </c>
       <c r="F11" s="1">
-        <v>757.6971</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6119.7345</v>
+        <v>747.5187</v>
       </c>
       <c r="H11" s="1">
-        <v>84304.23850000001</v>
+        <v>73357.5675</v>
       </c>
       <c r="I11" s="1">
-        <v>102461.43</v>
+        <v>1054.0207</v>
       </c>
       <c r="J11" s="1">
-        <v>16.7428</v>
+        <v>74411.58809999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91756.70110000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.231</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10492.286</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>984.572</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>85288.81050000001</v>
+        <v>-10351.3402</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0144</v>
+        <v>-0.0163</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>14.6185</v>
       </c>
+      <c r="E12" s="1">
+        <v>6072.6227</v>
+      </c>
       <c r="F12" s="1">
-        <v>717.7403</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6837.4748</v>
+        <v>708.0987</v>
       </c>
       <c r="H12" s="1">
-        <v>99435.3441</v>
+        <v>88312.3302</v>
       </c>
       <c r="I12" s="1">
-        <v>112953.7159</v>
+        <v>702.6805000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>16.5198</v>
+        <v>89015.01059999999</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102108.0414</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.8145</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10492.286</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>492.286</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>99927.63009999999</v>
+        <v>-10351.3402</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0487</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>15.2363</v>
       </c>
+      <c r="E13" s="1">
+        <v>6780.7214</v>
+      </c>
       <c r="F13" s="1">
-        <v>688.6374</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7526.1122</v>
+        <v>679.3867</v>
       </c>
       <c r="H13" s="1">
-        <v>114075.5398</v>
+        <v>102777.4279</v>
       </c>
       <c r="I13" s="1">
-        <v>123446.0019</v>
+        <v>351.3402</v>
       </c>
       <c r="J13" s="1">
-        <v>16.4024</v>
+        <v>103128.7681</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112459.3816</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.5852</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10492.286</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>114075.5398</v>
+        <v>-10351.3402</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0377</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>15.9097</v>
       </c>
+      <c r="E14" s="1">
+        <v>7460.1081</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7526.1122</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6780.7214</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118072.623</v>
       </c>
       <c r="I14" s="1">
-        <v>123446.0019</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.4024</v>
+        <v>118072.623</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112459.3816</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.0748</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>119117.2823</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>119117.2823</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119117.2823</v>
+        <v>107319.8331</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.04</v>
+        <v>0.0437</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>23.2533</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>430.0465</v>
       </c>
       <c r="G2" s="1">
-        <v>430.0465</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.136399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>23.2533</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.136399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>22.965</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>430.0465</v>
       </c>
       <c r="F3" s="1">
         <v>435.4452</v>
       </c>
       <c r="G3" s="1">
-        <v>865.4917</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19772.9375</v>
+        <v>9824.7991</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>23.1083</v>
+        <v>9824.7991</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>23.2533</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19772.9375</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.008800000000000001</v>
+        <v>-0.0175</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>19.9668</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>865.4917</v>
       </c>
       <c r="F4" s="1">
         <v>500.8314</v>
       </c>
       <c r="G4" s="1">
-        <v>1366.3231</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>27139.6858</v>
+        <v>17191.5219</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21.9567</v>
+        <v>17191.5219</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>23.1083</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>27139.6858</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.08840000000000001</v>
+        <v>-0.1328</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>18.2441</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1366.3231</v>
       </c>
       <c r="F5" s="1">
         <v>548.1224</v>
       </c>
       <c r="G5" s="1">
-        <v>1914.4455</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>34746.2289</v>
+        <v>24798.0813</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>20.8938</v>
+        <v>24798.0813</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>21.9567</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>34746.2289</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0644</v>
+        <v>-0.08799999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>14.3227</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>1914.4455</v>
       </c>
       <c r="F6" s="1">
         <v>698.1924</v>
       </c>
       <c r="G6" s="1">
-        <v>2612.6379</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>37225.9098</v>
+        <v>27277.7855</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>19.1377</v>
+        <v>27277.7855</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>20.8938</v>
+      </c>
+      <c r="M6" s="1">
         <v>2</v>
       </c>
-      <c r="L6" s="1">
-        <v>3446.0019</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-6553.9981</v>
+        <v>2459.3816</v>
       </c>
       <c r="O6" s="1">
-        <v>3446.0019</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>40671.9118</v>
+        <v>-7540.6184</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0911</v>
+        <v>-0.2161</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>15.7433</v>
       </c>
       <c r="E7" s="1">
+        <v>2612.6379</v>
+      </c>
+      <c r="F7" s="1">
+        <v>791.4085</v>
+      </c>
+      <c r="G7" s="1">
         <v>60000</v>
       </c>
-      <c r="F7" s="1">
-        <v>854.0777</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3466.7156</v>
-      </c>
       <c r="H7" s="1">
-        <v>54294.6601</v>
+        <v>40918.351</v>
       </c>
       <c r="I7" s="1">
-        <v>63446.0019</v>
+        <v>2459.3816</v>
       </c>
       <c r="J7" s="1">
-        <v>18.3015</v>
+        <v>43377.7326</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>52459.3816</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>20.0791</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-13446.0019</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>54294.6601</v>
+        <v>-12459.3816</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.07149999999999999</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>16.1934</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3404.0464</v>
       </c>
       <c r="F8" s="1">
         <v>617.5355</v>
       </c>
       <c r="G8" s="1">
-        <v>4084.2512</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>65794.8357</v>
+        <v>54837.1452</v>
       </c>
       <c r="I8" s="1">
-        <v>73446.0019</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9827</v>
+        <v>54837.1452</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>62459.3816</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.3486</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>65794.8357</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0233</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>15.2218</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4021.5819</v>
       </c>
       <c r="F9" s="1">
         <v>656.9525</v>
       </c>
       <c r="G9" s="1">
-        <v>4741.2037</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>71795.57339999999</v>
+        <v>60898.4133</v>
       </c>
       <c r="I9" s="1">
-        <v>83446.0019</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6002</v>
+        <v>60898.4133</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>72459.38159999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.0176</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>71795.57339999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0528</v>
+        <v>-0.0607</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>14.0702</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4678.5345</v>
       </c>
       <c r="F10" s="1">
         <v>710.722</v>
       </c>
       <c r="G10" s="1">
-        <v>5451.9256</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>76312.2389</v>
+        <v>65486.8506</v>
       </c>
       <c r="I10" s="1">
-        <v>93446.0019</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.14</v>
+        <v>65486.8506</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>82459.38159999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.625</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>76312.2389</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.067</v>
+        <v>-0.07630000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>13.8476</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5389.2564</v>
       </c>
       <c r="F11" s="1">
         <v>722.1468</v>
       </c>
       <c r="G11" s="1">
-        <v>6174.0724</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>85052.78720000001</v>
+        <v>74241.3187</v>
       </c>
       <c r="I11" s="1">
-        <v>103446.0019</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.7549</v>
+        <v>74241.3187</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92459.38159999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.1562</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>85052.78720000001</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0146</v>
+        <v>-0.0165</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>14.6185</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6111.4032</v>
       </c>
       <c r="F12" s="1">
         <v>684.0647</v>
       </c>
       <c r="G12" s="1">
-        <v>6858.1372</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>99735.8312</v>
+        <v>88876.3037</v>
       </c>
       <c r="I12" s="1">
-        <v>113446.0019</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.5418</v>
+        <v>88876.3037</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102459.3816</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.7653</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>99735.8312</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0493</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>15.2363</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6795.4679</v>
       </c>
       <c r="F13" s="1">
         <v>656.3273</v>
       </c>
       <c r="G13" s="1">
-        <v>7514.4645</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>113898.9925</v>
+        <v>103000.9462</v>
       </c>
       <c r="I13" s="1">
-        <v>123446.0019</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.4278</v>
+        <v>103000.9462</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112459.3816</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.5492</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>113898.9925</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0379</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>15.9097</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7451.7953</v>
       </c>
       <c r="F14" s="1">
-        <v>-7514.4645</v>
+        <v>-7451.7953</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>117941.054</v>
       </c>
       <c r="I14" s="1">
-        <v>123446.0019</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.4278</v>
+        <v>117941.054</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112459.3816</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.0916</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>118932.9322</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>118932.9322</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118932.9322</v>
+        <v>117941.054</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0401</v>
+        <v>0.0437</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>23.2533</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>430.0465</v>
       </c>
       <c r="G2" s="1">
-        <v>430.0465</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.136399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>23.2533</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.136399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>22.965</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>430.0465</v>
       </c>
       <c r="F3" s="1">
         <v>435.4452</v>
       </c>
       <c r="G3" s="1">
-        <v>865.4917</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19772.9375</v>
+        <v>9824.7991</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>23.1083</v>
+        <v>9824.7991</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>23.2533</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19772.9375</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.008800000000000001</v>
+        <v>-0.0175</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>19.9668</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>865.4917</v>
       </c>
       <c r="F4" s="1">
         <v>500.8314</v>
       </c>
       <c r="G4" s="1">
-        <v>1366.3231</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>27139.6858</v>
+        <v>17191.5219</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21.9567</v>
+        <v>17191.5219</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>23.1083</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>27139.6858</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.08840000000000001</v>
+        <v>-0.1328</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>18.2441</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1366.3231</v>
       </c>
       <c r="F5" s="1">
         <v>548.1224</v>
       </c>
       <c r="G5" s="1">
-        <v>1914.4455</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>34746.2289</v>
+        <v>24798.0813</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>20.8938</v>
+        <v>24798.0813</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>21.9567</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>34746.2289</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0644</v>
+        <v>-0.08799999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>14.3227</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>1914.4455</v>
       </c>
       <c r="F6" s="1">
         <v>698.1924</v>
       </c>
       <c r="G6" s="1">
-        <v>2612.6379</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>37225.9098</v>
+        <v>27277.7855</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>19.1377</v>
+        <v>27277.7855</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>20.8938</v>
+      </c>
+      <c r="M6" s="1">
         <v>2</v>
       </c>
-      <c r="L6" s="1">
-        <v>3446.0019</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-6553.9981</v>
+        <v>2459.3816</v>
       </c>
       <c r="O6" s="1">
-        <v>3446.0019</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>40671.9118</v>
+        <v>-7540.6184</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0911</v>
+        <v>-0.2161</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>15.7433</v>
       </c>
       <c r="E7" s="1">
+        <v>2612.6379</v>
+      </c>
+      <c r="F7" s="1">
+        <v>791.4085</v>
+      </c>
+      <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
-      <c r="F7" s="1">
-        <v>854.0777</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3466.7156</v>
-      </c>
       <c r="H7" s="1">
-        <v>54294.6601</v>
+        <v>40918.351</v>
       </c>
       <c r="I7" s="1">
-        <v>63446.0019</v>
+        <v>2459.3816</v>
       </c>
       <c r="J7" s="1">
-        <v>18.3015</v>
+        <v>43377.7326</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>52459.3816</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>20.0791</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-13446.0019</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>54294.6601</v>
+        <v>-12459.3816</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.07149999999999999</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>16.1934</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3404.0464</v>
       </c>
       <c r="F8" s="1">
         <v>617.5355</v>
       </c>
       <c r="G8" s="1">
-        <v>4084.2512</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>65794.8357</v>
+        <v>54837.1452</v>
       </c>
       <c r="I8" s="1">
-        <v>73446.0019</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9827</v>
+        <v>54837.1452</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>62459.3816</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.3486</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>65794.8357</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0233</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>15.2218</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4021.5819</v>
       </c>
       <c r="F9" s="1">
         <v>656.9525</v>
       </c>
       <c r="G9" s="1">
-        <v>4741.2037</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>71795.57339999999</v>
+        <v>60898.4133</v>
       </c>
       <c r="I9" s="1">
-        <v>83446.0019</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6002</v>
+        <v>60898.4133</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>72459.38159999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.0176</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>71795.57339999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0528</v>
+        <v>-0.0607</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>14.0702</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4678.5345</v>
       </c>
       <c r="F10" s="1">
         <v>710.722</v>
       </c>
       <c r="G10" s="1">
-        <v>5451.9256</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>76312.2389</v>
+        <v>65486.8506</v>
       </c>
       <c r="I10" s="1">
-        <v>93446.0019</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.14</v>
+        <v>65486.8506</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>82459.38159999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.625</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>76312.2389</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.067</v>
+        <v>-0.07630000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>13.8476</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5389.2564</v>
       </c>
       <c r="F11" s="1">
         <v>722.1468</v>
       </c>
       <c r="G11" s="1">
-        <v>6174.0724</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>85052.78720000001</v>
+        <v>74241.3187</v>
       </c>
       <c r="I11" s="1">
-        <v>103446.0019</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.7549</v>
+        <v>74241.3187</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92459.38159999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.1562</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>85052.78720000001</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0146</v>
+        <v>-0.0165</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>14.6185</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6111.4032</v>
       </c>
       <c r="F12" s="1">
         <v>684.0647</v>
       </c>
       <c r="G12" s="1">
-        <v>6858.1372</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>99735.8312</v>
+        <v>88876.3037</v>
       </c>
       <c r="I12" s="1">
-        <v>113446.0019</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.5418</v>
+        <v>88876.3037</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102459.3816</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.7653</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>99735.8312</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0493</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>15.2363</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6795.4679</v>
       </c>
       <c r="F13" s="1">
         <v>656.3273</v>
       </c>
       <c r="G13" s="1">
-        <v>7514.4645</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>113898.9925</v>
+        <v>103000.9462</v>
       </c>
       <c r="I13" s="1">
-        <v>123446.0019</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.4278</v>
+        <v>103000.9462</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112459.3816</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.5492</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>113898.9925</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0379</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>15.9097</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7451.7953</v>
       </c>
       <c r="F14" s="1">
-        <v>-7514.4645</v>
+        <v>-7451.7953</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>117941.054</v>
       </c>
       <c r="I14" s="1">
-        <v>123446.0019</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.4278</v>
+        <v>117941.054</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112459.3816</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.0916</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>118932.9322</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>118932.9322</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118932.9322</v>
+        <v>117941.054</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0401</v>
+        <v>0.0437</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>23.2533</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>430.0465</v>
       </c>
       <c r="G2" s="1">
-        <v>430.0465</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.136399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>23.2533</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.136399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>22.965</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>430.0465</v>
       </c>
       <c r="F3" s="1">
         <v>435.4452</v>
       </c>
       <c r="G3" s="1">
-        <v>865.4917</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19772.9375</v>
+        <v>9824.7991</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>23.1083</v>
+        <v>9824.7991</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>23.2533</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19772.9375</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.008800000000000001</v>
+        <v>-0.0175</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>19.9668</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>865.4917</v>
       </c>
       <c r="F4" s="1">
         <v>500.8314</v>
       </c>
       <c r="G4" s="1">
-        <v>1366.3231</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>27139.6858</v>
+        <v>17191.5219</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21.9567</v>
+        <v>17191.5219</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>23.1083</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>27139.6858</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.08840000000000001</v>
+        <v>-0.1328</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>18.2441</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1366.3231</v>
       </c>
       <c r="F5" s="1">
         <v>548.1224</v>
       </c>
       <c r="G5" s="1">
-        <v>1914.4455</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>34746.2289</v>
+        <v>24798.0813</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>20.8938</v>
+        <v>24798.0813</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>21.9567</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>34746.2289</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0644</v>
+        <v>-0.08799999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>14.3227</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>1914.4455</v>
       </c>
       <c r="F6" s="1">
         <v>698.1924</v>
       </c>
       <c r="G6" s="1">
-        <v>2612.6379</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>37225.9098</v>
+        <v>27277.7855</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>19.1377</v>
+        <v>27277.7855</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>20.8938</v>
+      </c>
+      <c r="M6" s="1">
         <v>2</v>
       </c>
-      <c r="L6" s="1">
-        <v>3446.0019</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-6553.9981</v>
+        <v>2459.3816</v>
       </c>
       <c r="O6" s="1">
-        <v>3446.0019</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>40671.9118</v>
+        <v>-7540.6184</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0911</v>
+        <v>-0.2161</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>15.7433</v>
       </c>
       <c r="E7" s="1">
+        <v>2612.6379</v>
+      </c>
+      <c r="F7" s="1">
+        <v>791.4085</v>
+      </c>
+      <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
-      <c r="F7" s="1">
-        <v>854.0777</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3466.7156</v>
-      </c>
       <c r="H7" s="1">
-        <v>54294.6601</v>
+        <v>40918.351</v>
       </c>
       <c r="I7" s="1">
-        <v>63446.0019</v>
+        <v>2459.3816</v>
       </c>
       <c r="J7" s="1">
-        <v>18.3015</v>
+        <v>43377.7326</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>52459.3816</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>20.0791</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-13446.0019</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>54294.6601</v>
+        <v>-12459.3816</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.07149999999999999</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>16.1934</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3404.0464</v>
       </c>
       <c r="F8" s="1">
         <v>617.5355</v>
       </c>
       <c r="G8" s="1">
-        <v>4084.2512</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>65794.8357</v>
+        <v>54837.1452</v>
       </c>
       <c r="I8" s="1">
-        <v>73446.0019</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9827</v>
+        <v>54837.1452</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>62459.3816</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.3486</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>65794.8357</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0233</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>15.2218</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4021.5819</v>
       </c>
       <c r="F9" s="1">
         <v>656.9525</v>
       </c>
       <c r="G9" s="1">
-        <v>4741.2037</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>71795.57339999999</v>
+        <v>60898.4133</v>
       </c>
       <c r="I9" s="1">
-        <v>83446.0019</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6002</v>
+        <v>60898.4133</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>72459.38159999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.0176</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>71795.57339999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0528</v>
+        <v>-0.0607</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>14.0702</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4678.5345</v>
       </c>
       <c r="F10" s="1">
         <v>710.722</v>
       </c>
       <c r="G10" s="1">
-        <v>5451.9256</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>76312.2389</v>
+        <v>65486.8506</v>
       </c>
       <c r="I10" s="1">
-        <v>93446.0019</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.14</v>
+        <v>65486.8506</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>82459.38159999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.625</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>76312.2389</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.067</v>
+        <v>-0.07630000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>13.8476</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5389.2564</v>
       </c>
       <c r="F11" s="1">
         <v>722.1468</v>
       </c>
       <c r="G11" s="1">
-        <v>6174.0724</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>85052.78720000001</v>
+        <v>74241.3187</v>
       </c>
       <c r="I11" s="1">
-        <v>103446.0019</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.7549</v>
+        <v>74241.3187</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92459.38159999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.1562</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>85052.78720000001</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0146</v>
+        <v>-0.0165</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>14.6185</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6111.4032</v>
       </c>
       <c r="F12" s="1">
         <v>684.0647</v>
       </c>
       <c r="G12" s="1">
-        <v>6858.1372</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>99735.8312</v>
+        <v>88876.3037</v>
       </c>
       <c r="I12" s="1">
-        <v>113446.0019</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.5418</v>
+        <v>88876.3037</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102459.3816</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.7653</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>99735.8312</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0493</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>15.2363</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6795.4679</v>
       </c>
       <c r="F13" s="1">
         <v>656.3273</v>
       </c>
       <c r="G13" s="1">
-        <v>7514.4645</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>113898.9925</v>
+        <v>103000.9462</v>
       </c>
       <c r="I13" s="1">
-        <v>123446.0019</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.4278</v>
+        <v>103000.9462</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112459.3816</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.5492</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>113898.9925</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0379</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>15.9097</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7451.7953</v>
       </c>
       <c r="F14" s="1">
-        <v>-7514.4645</v>
+        <v>-7451.7953</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>117941.054</v>
       </c>
       <c r="I14" s="1">
-        <v>123446.0019</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.4278</v>
+        <v>117941.054</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112459.3816</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.0916</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>118932.9322</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>118932.9322</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118932.9322</v>
+        <v>117941.054</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0401</v>
+        <v>0.0437</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>23.2533</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>430.0465</v>
       </c>
       <c r="G2" s="1">
-        <v>430.0465</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.136399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>23.2533</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.136399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>22.965</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>430.0465</v>
       </c>
       <c r="F3" s="1">
         <v>435.4452</v>
       </c>
       <c r="G3" s="1">
-        <v>865.4917</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19772.9375</v>
+        <v>9824.7991</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>23.1083</v>
+        <v>9824.7991</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>23.2533</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19772.9375</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.008800000000000001</v>
+        <v>-0.0175</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>19.9668</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>865.4917</v>
       </c>
       <c r="F4" s="1">
         <v>500.8314</v>
       </c>
       <c r="G4" s="1">
-        <v>1366.3231</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>27139.6858</v>
+        <v>17191.5219</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21.9567</v>
+        <v>17191.5219</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>23.1083</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>27139.6858</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.08840000000000001</v>
+        <v>-0.1328</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>18.2441</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1366.3231</v>
       </c>
       <c r="F5" s="1">
         <v>548.1224</v>
       </c>
       <c r="G5" s="1">
-        <v>1914.4455</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>34746.2289</v>
+        <v>24798.0813</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>20.8938</v>
+        <v>24798.0813</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>21.9567</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>34746.2289</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0644</v>
+        <v>-0.08799999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>14.3227</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>1914.4455</v>
       </c>
       <c r="F6" s="1">
         <v>698.1924</v>
       </c>
       <c r="G6" s="1">
-        <v>2612.6379</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>37225.9098</v>
+        <v>27277.7855</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>19.1377</v>
+        <v>27277.7855</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>20.8938</v>
+      </c>
+      <c r="M6" s="1">
         <v>2</v>
       </c>
-      <c r="L6" s="1">
-        <v>3446.0019</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-6553.9981</v>
+        <v>2459.3816</v>
       </c>
       <c r="O6" s="1">
-        <v>3446.0019</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>40671.9118</v>
+        <v>-7540.6184</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0911</v>
+        <v>-0.2161</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>15.7433</v>
       </c>
       <c r="E7" s="1">
+        <v>2612.6379</v>
+      </c>
+      <c r="F7" s="1">
+        <v>791.4085</v>
+      </c>
+      <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
-      <c r="F7" s="1">
-        <v>854.0777</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3466.7156</v>
-      </c>
       <c r="H7" s="1">
-        <v>54294.6601</v>
+        <v>40918.351</v>
       </c>
       <c r="I7" s="1">
-        <v>63446.0019</v>
+        <v>2459.3816</v>
       </c>
       <c r="J7" s="1">
-        <v>18.3015</v>
+        <v>43377.7326</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>52459.3816</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>20.0791</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-13446.0019</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>54294.6601</v>
+        <v>-12459.3816</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.07149999999999999</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>16.1934</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3404.0464</v>
       </c>
       <c r="F8" s="1">
         <v>617.5355</v>
       </c>
       <c r="G8" s="1">
-        <v>4084.2512</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>65794.8357</v>
+        <v>54837.1452</v>
       </c>
       <c r="I8" s="1">
-        <v>73446.0019</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9827</v>
+        <v>54837.1452</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>62459.3816</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.3486</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>65794.8357</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0233</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>15.2218</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4021.5819</v>
       </c>
       <c r="F9" s="1">
         <v>656.9525</v>
       </c>
       <c r="G9" s="1">
-        <v>4741.2037</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>71795.57339999999</v>
+        <v>60898.4133</v>
       </c>
       <c r="I9" s="1">
-        <v>83446.0019</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6002</v>
+        <v>60898.4133</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>72459.38159999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.0176</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>71795.57339999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0528</v>
+        <v>-0.0607</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>14.0702</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4678.5345</v>
       </c>
       <c r="F10" s="1">
         <v>710.722</v>
       </c>
       <c r="G10" s="1">
-        <v>5451.9256</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>76312.2389</v>
+        <v>65486.8506</v>
       </c>
       <c r="I10" s="1">
-        <v>93446.0019</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.14</v>
+        <v>65486.8506</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>82459.38159999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.625</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>76312.2389</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.067</v>
+        <v>-0.07630000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>13.8476</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5389.2564</v>
       </c>
       <c r="F11" s="1">
         <v>722.1468</v>
       </c>
       <c r="G11" s="1">
-        <v>6174.0724</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>85052.78720000001</v>
+        <v>74241.3187</v>
       </c>
       <c r="I11" s="1">
-        <v>103446.0019</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.7549</v>
+        <v>74241.3187</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92459.38159999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.1562</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>85052.78720000001</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0146</v>
+        <v>-0.0165</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>14.6185</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6111.4032</v>
       </c>
       <c r="F12" s="1">
         <v>684.0647</v>
       </c>
       <c r="G12" s="1">
-        <v>6858.1372</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>99735.8312</v>
+        <v>88876.3037</v>
       </c>
       <c r="I12" s="1">
-        <v>113446.0019</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.5418</v>
+        <v>88876.3037</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102459.3816</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.7653</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>99735.8312</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0493</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>15.2363</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6795.4679</v>
       </c>
       <c r="F13" s="1">
         <v>656.3273</v>
       </c>
       <c r="G13" s="1">
-        <v>7514.4645</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>113898.9925</v>
+        <v>103000.9462</v>
       </c>
       <c r="I13" s="1">
-        <v>123446.0019</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.4278</v>
+        <v>103000.9462</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112459.3816</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.5492</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>113898.9925</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0379</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>15.9097</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7451.7953</v>
       </c>
       <c r="F14" s="1">
-        <v>-7514.4645</v>
+        <v>-7451.7953</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>117941.054</v>
       </c>
       <c r="I14" s="1">
-        <v>123446.0019</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.4278</v>
+        <v>117941.054</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112459.3816</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.0916</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>118932.9322</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>118932.9322</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118932.9322</v>
+        <v>117941.054</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0401</v>
+        <v>0.0437</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>15.8668</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.4024</v>
+        <v>15.0748</v>
       </c>
       <c r="D3" s="1">
-        <v>16.4278</v>
+        <v>15.0916</v>
       </c>
       <c r="E3" s="1">
-        <v>16.4278</v>
+        <v>15.0916</v>
       </c>
       <c r="F3" s="1">
-        <v>16.4278</v>
+        <v>15.0916</v>
       </c>
       <c r="G3" s="1">
-        <v>16.4278</v>
+        <v>15.0916</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.3257</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.2429</v>
+        <v>-0.2749</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.2452</v>
+        <v>-0.2766</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.2452</v>
+        <v>-0.2766</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.2452</v>
+        <v>-0.2766</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.2452</v>
+        <v>-0.2766</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2984</v>
       </c>
       <c r="C5" s="3">
-        <v>0.183</v>
+        <v>0.331</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1843</v>
+        <v>0.3317</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1843</v>
+        <v>0.3317</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1843</v>
+        <v>0.3317</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1843</v>
+        <v>0.3317</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-1.1596</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.4383</v>
+        <v>-0.8921</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.4408</v>
+        <v>-0.8953</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.4408</v>
+        <v>-0.8953</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.4408</v>
+        <v>-0.8953</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.4408</v>
+        <v>-0.8953</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0138</v>
+        <v>-0.1913</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0164</v>
+        <v>-0.0316</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0164</v>
+        <v>-0.0316</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0164</v>
+        <v>-0.0316</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.0164</v>
+        <v>-0.0316</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3446.0019</v>
+        <v>2459.3816</v>
       </c>
       <c r="D8" s="1">
-        <v>3446.0019</v>
+        <v>2459.3816</v>
       </c>
       <c r="E8" s="1">
-        <v>3446.0019</v>
+        <v>2459.3816</v>
       </c>
       <c r="F8" s="1">
-        <v>3446.0019</v>
+        <v>2459.3816</v>
       </c>
       <c r="G8" s="1">
-        <v>3446.0019</v>
+        <v>2459.3816</v>
       </c>
     </row>
   </sheetData>
